--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1177918.277338399</v>
+        <v>1171789.520286961</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10844799.3679741</v>
+        <v>11101232.33965775</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>338.2021783495326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>261.7829880843487</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>24.55276019063743</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>144.8586974472232</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>206.3760037453422</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>294.4507369780889</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3.756747133563271</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>223.6421620818613</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>15.86456864293878</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>137.7336954102807</v>
+        <v>50.9807481254283</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>6.632494016571904</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>168.1158122680985</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>106.5867442799596</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758713</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.1474991249037</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>172.6684446854161</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>118.1266457994465</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1589.988596769088</v>
+        <v>1137.765993863678</v>
       </c>
       <c r="C2" t="n">
-        <v>1589.988596769088</v>
+        <v>1137.765993863678</v>
       </c>
       <c r="D2" t="n">
-        <v>1589.988596769088</v>
+        <v>779.5002952569273</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>393.7120426586831</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.1279287449</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y2" t="n">
-        <v>1589.988596769088</v>
+        <v>1524.365833927799</v>
       </c>
     </row>
     <row r="3">
@@ -4412,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>299.2648838844846</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.9684409159563</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.90341785788</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9672349299731</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8505955176373</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>222.9375019352442</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>76.04755443733384</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.34446183165</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>871.5518826881197</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1449.505074804839</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="C5" t="n">
-        <v>1449.505074804839</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D5" t="n">
-        <v>1449.505074804839</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1063.716822206595</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>652.7309174169873</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4573,10 +4573,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y5" t="n">
-        <v>1836.104914868961</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.7932119894607</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>771.8570290615538</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1632.651426000191</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>1343.23425596323</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1343.23425596323</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>1122.4416768197</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>832.1627361996682</v>
+        <v>1797.459220126683</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1428.496703186271</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>1070.231004579521</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2546.314511589107</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2292.733450853286</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>1961.670563509716</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W8" t="n">
-        <v>1608.901908239602</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X8" t="n">
-        <v>1608.901908239602</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="Y8" t="n">
-        <v>1218.76257626379</v>
+        <v>2184.059060190805</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>482.9033490193021</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507739</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1497.321175215628</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1497.321175215628</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1269.331624317611</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1617.939223126803</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1617.939223126803</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3318.906332703543</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3065.37585597738</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2734.312968633809</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2381.544313363695</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>2008.078555102614</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>1617.939223126803</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.908724368016</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1134.908724368016</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>481.584566587187</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218345</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609172</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609172</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609172</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609172</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3155.791869823214</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2782.326111562134</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228009</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031473</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>880.2242361621301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>880.2242361621301</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279955</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764916</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760407</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581906</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672848</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368017</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621301</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>880.2242361621301</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>880.2242361621301</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>880.2242361621301</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487568</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.378057281681</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5758,43 +5758,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398594</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U22" t="n">
-        <v>4517.069482196494</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V22" t="n">
-        <v>4262.384993990608</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953647</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,28 +6220,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>516.389687887188</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,16 +6460,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3227.225672628157</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>3058.28948970025</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2908.172850287915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2760.259756705521</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2613.369809207611</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4147.073437536905</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3857.656267499944</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3629.666716601927</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3408.874137458397</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558406</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630499</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218163</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,25 +6952,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>816.8474788130626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558406</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630499</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218163</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866305</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305901</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328842</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.25592267304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467153</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430193</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.9556134883062555</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>186.4490126143846</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>231.2582814363235</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>60.35797727397579</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>197.2854761230482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>181.1251564493145</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>42.02872873825275</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.37549921168733</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>44.7370056418722</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>32.89260457059919</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>30.48882721876581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>807442.6222317871</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>807442.6222317874</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165591</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26352,10 +26352,10 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217538</v>
       </c>
     </row>
     <row r="3">
@@ -26374,37 +26374,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545125</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6720.683277029938</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029938</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139333</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-867500.2651754264</v>
       </c>
       <c r="C6" t="n">
-        <v>247251.5184004932</v>
+        <v>247251.5184004933</v>
       </c>
       <c r="D6" t="n">
-        <v>247251.5184004934</v>
+        <v>247251.5184004931</v>
       </c>
       <c r="E6" t="n">
-        <v>129046.6601609451</v>
+        <v>-151743.4803777635</v>
       </c>
       <c r="F6" t="n">
-        <v>311119.6399781357</v>
+        <v>355741.9612467822</v>
       </c>
       <c r="G6" t="n">
-        <v>46246.30704131923</v>
+        <v>355741.9612467822</v>
       </c>
       <c r="H6" t="n">
-        <v>356089.3405011392</v>
+        <v>355741.9612467823</v>
       </c>
       <c r="I6" t="n">
-        <v>356089.3405011391</v>
+        <v>355741.9612467821</v>
       </c>
       <c r="J6" t="n">
-        <v>188484.1626911567</v>
+        <v>188136.7834367999</v>
       </c>
       <c r="K6" t="n">
-        <v>356089.3405011392</v>
+        <v>355741.9612467823</v>
       </c>
       <c r="L6" t="n">
-        <v>356089.3405011392</v>
+        <v>355741.9612467823</v>
       </c>
       <c r="M6" t="n">
-        <v>308537.0747077243</v>
+        <v>223134.6675178557</v>
       </c>
       <c r="N6" t="n">
-        <v>356089.3405011392</v>
+        <v>355741.9612467823</v>
       </c>
       <c r="O6" t="n">
-        <v>273953.5099056879</v>
+        <v>355741.9612467824</v>
       </c>
       <c r="P6" t="n">
-        <v>356089.3405011393</v>
+        <v>355741.9612467824</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26795,19 +26795,19 @@
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26819,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,25 +26968,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973553</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.72819172272915</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>145.0930576573627</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>141.7538398541668</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>49.80376291451429</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>176.3578379181383</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>117.0969657948651</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>248.3808961902647</v>
+        <v>80.94049690661271</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>158.2882079904005</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>190.793616337295</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>114.4039479135473</v>
+        <v>201.1568951983997</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31530,16 +31530,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31551,7 +31551,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,7 +31600,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31612,16 +31612,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31706,7 +31706,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31715,7 +31715,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>378.512347035315</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>615.1181176946646</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107744</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>333.9544784328822</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226052</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.5431097317911</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34789,7 +34789,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>577.6461122072586</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34798,10 +34798,10 @@
         <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>622.4553810291975</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35035,10 +35035,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35196,7 +35196,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>246.9454735174606</v>
+        <v>397.6203974676406</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
@@ -35275,7 +35275,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35345,13 +35345,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302269</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882193</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>240.670908060956</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>483.7764056113314</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663299</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>191.3582339884378</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>477.985332142731</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1171789.520286961</v>
+        <v>1174944.439629183</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11101232.33965775</v>
+        <v>10844799.3679741</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>22.19039300819497</v>
       </c>
       <c r="F2" t="n">
-        <v>261.7829880843487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>144.8586974472232</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>62.45114996988301</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>206.3760037453422</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>189.7185254440879</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>171.1971464172153</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>223.6421620818613</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1192,13 +1192,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>249.3387099494843</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.9807481254283</v>
+        <v>64.50612826256102</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>61.31988685654797</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>118.6752559686002</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>212.1108026154261</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>115.7063133373723</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>167.033505642222</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,10 +2013,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>172.6684446854161</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189063</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>35.88641949135589</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1137.765993863678</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.765993863678</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="D2" t="n">
-        <v>779.5002952569273</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="E2" t="n">
-        <v>393.7120426586831</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4363,19 +4363,19 @@
         <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.831592188879</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.365833927799</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.365833927799</v>
+        <v>1270.784773191979</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844846</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159563</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751764</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1490.124203461141</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.124203461141</v>
+        <v>1376.73540256781</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1975.598450347025</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="C5" t="n">
-        <v>1606.635933406614</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
         <v>1248.370234799863</v>
@@ -4564,16 +4564,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872916</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>575.62568451442</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>870.3292415458916</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4716,34 +4716,34 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1797.459220126683</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>1428.496703186271</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1070.231004579521</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4840,16 +4840,16 @@
         <v>2184.059060190805</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190805</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190805</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190805</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="Y8" t="n">
-        <v>2184.059060190805</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,19 +4886,19 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
         <v>51.2467865680031</v>
@@ -4962,7 +4962,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2038.144201386632</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2424.744041450754</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3119.628073993391</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>812.5736815556427</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>584.5841306576253</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5703,22 +5703,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5752,28 +5752,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.0424953278208</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
         <v>261.0127623330919</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2022.649975098258</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.574748442456</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1478.890260236569</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.473090199608</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>961.4835393015907</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.6909601580605</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6460,7 +6460,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>560.7825789706076</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>391.8463960427007</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>241.729756630365</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2243.991523718104</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.4310438008473</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6931,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,13 +6943,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>198.027470314254</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
@@ -7177,28 +7177,28 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2410.714175003133</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9556134883062555</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>154.0169020165192</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241558</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>303.9530049144596</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>26.0797589457206</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>174.1271360406275</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>51.55114770987282</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>73.62417772602126</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>44.7370056418722</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823106</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>72.11969353038616</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>30.48882721876579</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954496.6942858805</v>
+        <v>807442.6222317872</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954496.6942858807</v>
+        <v>807442.6222317871</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="14">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="C2" t="n">
+        <v>472099.0176719632</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="D2" t="n">
-        <v>472099.0176719628</v>
-      </c>
       <c r="E2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="F2" t="n">
+        <v>392146.6638165588</v>
+      </c>
+      <c r="G2" t="n">
+        <v>464109.2948217535</v>
+      </c>
+      <c r="H2" t="n">
         <v>464109.2948217536</v>
-      </c>
-      <c r="G2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26343,19 +26343,19 @@
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217538</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>182072.9798171908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.03345982</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545133</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26426,25 +26426,25 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
+        <v>6720.683277029939</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
         <v>6897.424496707359</v>
@@ -26456,7 +26456,7 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26478,10 +26478,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-867500.2651754264</v>
+        <v>-867500.265175426</v>
       </c>
       <c r="C6" t="n">
+        <v>247251.5184004935</v>
+      </c>
+      <c r="D6" t="n">
         <v>247251.5184004933</v>
       </c>
-      <c r="D6" t="n">
-        <v>247251.5184004931</v>
-      </c>
       <c r="E6" t="n">
-        <v>-151743.4803777635</v>
+        <v>128699.0412311388</v>
       </c>
       <c r="F6" t="n">
-        <v>355741.9612467822</v>
+        <v>310772.0210483297</v>
       </c>
       <c r="G6" t="n">
-        <v>355741.9612467822</v>
+        <v>46211.56911588334</v>
       </c>
       <c r="H6" t="n">
-        <v>355741.9612467823</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="I6" t="n">
-        <v>355741.9612467821</v>
+        <v>356054.6025757033</v>
       </c>
       <c r="J6" t="n">
-        <v>188136.7834367999</v>
+        <v>188449.424765721</v>
       </c>
       <c r="K6" t="n">
-        <v>355741.9612467823</v>
+        <v>356054.6025757036</v>
       </c>
       <c r="L6" t="n">
-        <v>355741.9612467823</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="M6" t="n">
-        <v>223134.6675178557</v>
+        <v>308502.3367822886</v>
       </c>
       <c r="N6" t="n">
-        <v>355741.9612467823</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="O6" t="n">
-        <v>355741.9612467824</v>
+        <v>273918.7719802521</v>
       </c>
       <c r="P6" t="n">
-        <v>355741.9612467824</v>
+        <v>356054.6025757035</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>359.7399770640668</v>
       </c>
       <c r="F2" t="n">
-        <v>145.0930576573627</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>49.80376291451429</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>158.2975460273289</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.3578379181383</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>175.5543663269196</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>80.94049690661271</v>
+        <v>80.94049690661316</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>158.2882079904005</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>120.3923907289848</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983997</v>
+        <v>187.631515061267</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>615.1181176946646</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,25 +32548,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>187.5431097317911</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>340.604398260004</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676406</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>483.7764056113314</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
